--- a/.github/SDPP_CodingScheme.xlsx
+++ b/.github/SDPP_CodingScheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ABCDStudyNDA\ABCD_DataAnalysis_5.0\SDPP_ABCD_TabulatedData\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD5A3D1-5220-44DA-A4CC-0DE439DB6948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91823CE-195D-481A-A551-0ED82CC4A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Source File</t>
   </si>
@@ -55,9 +55,6 @@
     <t>reference: single</t>
   </si>
   <si>
-    <t>Child's Education level</t>
-  </si>
-  <si>
     <t>1, 2, 3, 4, 5</t>
   </si>
   <si>
@@ -67,18 +64,12 @@
     <t>demo_ed_v2</t>
   </si>
   <si>
-    <t>Race</t>
-  </si>
-  <si>
     <t>demo_race_a_p</t>
   </si>
   <si>
     <t>reference: White</t>
   </si>
   <si>
-    <t>Ethnicity</t>
-  </si>
-  <si>
     <t>demo_ethn_v2</t>
   </si>
   <si>
@@ -94,25 +85,16 @@
     <t>this variable is not entered to LME model</t>
   </si>
   <si>
-    <t>Family Size</t>
-  </si>
-  <si>
     <t>demo_roster_v2</t>
   </si>
   <si>
     <t>demo_child_time_v2</t>
   </si>
   <si>
-    <t>Country of Birth</t>
-  </si>
-  <si>
     <t>other country; USA</t>
   </si>
   <si>
     <t>demo_origin_v2</t>
-  </si>
-  <si>
-    <t>Family Income</t>
   </si>
   <si>
     <t>1, 2, 3, 4, 5, 6</t>
@@ -137,10 +119,6 @@
 Hispanic</t>
   </si>
   <si>
-    <t>Parents’ Marital
-Status</t>
-  </si>
-  <si>
     <t>Married or living
 with partner; Single</t>
   </si>
@@ -149,20 +127,12 @@
 living with partner</t>
   </si>
   <si>
-    <t>Parents’ Highest
-Education</t>
-  </si>
-  <si>
     <t>high school or less;
 college education</t>
   </si>
   <si>
     <t>reference: high school
 or less</t>
-  </si>
-  <si>
-    <t>Parents’
-Employment Status</t>
   </si>
   <si>
     <t>married 0/1/2 in
@@ -195,46 +165,146 @@
   </si>
   <si>
     <t>Variable Names</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Descriptions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Categories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Youth's Handedness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Parent-reported Family Structure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Relationship in 
-family</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent-reported Youth's Education Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent-identified Youth's Race</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent-identified Youth's Ethnicity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent-reported Marital Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent-reported the Highest Education Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseholdSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent-reported the number of family member in household</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent-reported household structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SexAssigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youth's Sex assigned at birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education_13L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Race_6L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethnicity_PrntRep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiteID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SchoolID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistrictID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACS_Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentsMarital_2L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentsHighEdu_2L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentsMarital_X_Employ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Interaction Term of Parent-reported Marital and Employment Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relationship_3L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BirthCountry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamilyIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,6 +313,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,13 +350,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -501,251 +582,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="38.875" customWidth="1"/>
+    <col min="6" max="6" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/.github/SDPP_CodingScheme.xlsx
+++ b/.github/SDPP_CodingScheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ABCDStudyNDA\ABCD_DataAnalysis_5.0\SDPP_ABCD_TabulatedData\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7772D5-F942-45D9-A609-A9B8CB46DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E25BDD-C4F6-4A72-855B-A0ACE97F5848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
     <sheet name="Neurocognition" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,9 +37,6 @@
     <t>Handedness</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 6</t>
-  </si>
-  <si>
     <t>Variable Names</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,10 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Participants' </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ABCD Site ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -649,118 +653,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Ordered Categorical (1-9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth event ID determined by rel_family_id and unique birthdates within rel_family_id groups</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String data whose last number indicate the birth sequence in the same family (e.g. 1, 2, 3, 4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 and below; 4; 5; 6; 7 and more;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordered Categorical (1-5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentsMarital_6L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parent-reported their Marital Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Married; Living with partner; Divorced; Separated; Widowed; Never married;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Youth's Body Mass Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numeric data in double, weight/(height)^2 * 703, weight in lb, height in inch. BMI values above 36 or below 11 were considered as abnormal values and replaced with NAs.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentEmploy</t>
+  </si>
+  <si>
+    <t>Parent Self-reported him/her Employment Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youth's Handedness (assessed by EHIS)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right; Left; Mixed;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentsHighEdu_5L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single household; Non-single household;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseholdStructure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demographic Imputation Details</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-coded based on the imputed variable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-imputed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directly Imputed by MI</t>
+  </si>
+  <si>
+    <t>SNS_Score</t>
+  </si>
+  <si>
+    <t>Numeric data in integer (0-11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youth's Vision Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCT_Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCT Single Item Response</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categorical (3 levels)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediate; Delayed; Cannot decide;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participants' Vistit Type within an assessment wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;$25k; $25-$49k, $50k-$74k, $75k-$99k, $100k-$199k, $200k+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>BirthID</t>
-  </si>
-  <si>
-    <t>Ordered Categorical (1-9)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth event ID determined by rel_family_id and unique birthdates within rel_family_id groups</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String data whose last number indicate the birth sequence in the same family (e.g. 1, 2, 3, 4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 and below; 4; 5; 6; 7 and more;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ordered Categorical (1-5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentsMarital_6L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parent-reported their Marital Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Married; Living with partner; Divorced; Separated; Widowed; Never married;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
-    <t>Youth's Body Mass Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Numeric data in double, weight/(height)^2 * 703, weight in lb, height in inch. BMI values above 36 or below 11 were considered as abnormal values and replaced with NAs.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentEmploy</t>
-  </si>
-  <si>
-    <t>Parent Self-reported him/her Employment Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Youth's Handedness (assessed by EHIS)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right; Left; Mixed;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentsHighEdu_5L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single household; Non-single household;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseholdStructure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demographic Imputation Details</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Re-coded based on the imputed variable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-imputed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Directly Imputed by MI</t>
-  </si>
-  <si>
-    <t>SNS_Score</t>
-  </si>
-  <si>
-    <t>Numeric data in integer (0-11)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Youth's Vision Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCT_Score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCT Single Item Response</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Categorical (3 levels)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Immediate; Delayed; Cannot decide;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1063,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,206 +1091,206 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1285,900 +1298,900 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2207,45 +2220,45 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/.github/SDPP_CodingScheme.xlsx
+++ b/.github/SDPP_CodingScheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ABCDStudyNDA\ABCD_DataAnalysis_5.0\SDPP_ABCD_TabulatedData\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E25BDD-C4F6-4A72-855B-A0ACE97F5848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E939020-70EF-46E1-A416-9B852A9BB28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
